--- a/models/mmd模型配置表.xlsx
+++ b/models/mmd模型配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="480" windowWidth="25920" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
   <si>
     <t>模型ID</t>
     <rPh sb="0" eb="1">
@@ -500,6 +500,90 @@
     <rPh sb="0" eb="1">
       <t>you</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待机</t>
+    <rPh sb="0" eb="1">
+      <t>dai ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左转头</t>
+    <rPh sb="0" eb="1">
+      <t>zuo zhuan tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右转头</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhuan tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬头</t>
+    <rPh sb="0" eb="1">
+      <t>tai tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低头</t>
+    <rPh sb="0" eb="1">
+      <t>di tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左歪头</t>
+    <rPh sb="0" eb="1">
+      <t>zuo wai tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右歪头</t>
+    <rPh sb="0" eb="1">
+      <t>you wai tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head_Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minow_Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head_Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minow_Right</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +591,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,6 +632,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -571,11 +669,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -855,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1499,6 +1604,104 @@
         <v>101</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
